--- a/results_method1_and_2/chartbars/cadences_echos_c.xlsx
+++ b/results_method1_and_2/chartbars/cadences_echos_c.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/echos_c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/echos_c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{E83A3D73-829C-425E-9F3E-FC0709F419AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61A56691-8160-49ED-902F-1FA2A0EB1DC3}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{E83A3D73-829C-425E-9F3E-FC0709F419AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7842ECA8-D7D6-41B6-9CB0-0E0C07AD3137}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cadence_G" sheetId="1" r:id="rId1"/>
+    <sheet name="echos_c_cadences" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -592,48 +592,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +651,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -731,7 +731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cadence_G!$A$7</c:f>
+              <c:f>echos_c_cadences!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -752,7 +752,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>cadence_G!$B$6:$G$6</c:f>
+              <c:f>echos_c_cadences!$B$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -778,7 +778,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cadence_G!$B$7:$G$7</c:f>
+              <c:f>echos_c_cadences!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -814,7 +814,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>cadence_G!$A$8</c:f>
+              <c:f>echos_c_cadences!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -835,7 +835,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>cadence_G!$B$6:$G$6</c:f>
+              <c:f>echos_c_cadences!$B$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -861,7 +861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cadence_G!$B$8:$G$8</c:f>
+              <c:f>echos_c_cadences!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -869,10 +869,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25862068965517243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6206896551724137E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.14655172413793102</c:v>
@@ -897,7 +897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>cadence_G!$A$9</c:f>
+              <c:f>echos_c_cadences!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -918,7 +918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>cadence_G!$B$6:$G$6</c:f>
+              <c:f>echos_c_cadences!$B$6:$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -944,7 +944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cadence_G!$B$9:$G$9</c:f>
+              <c:f>echos_c_cadences!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1763,7 +1763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A6:H9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>17</v>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C8" s="3">
         <f>C3/H3</f>
-        <v>0.25</v>
+        <v>0.25862068965517243</v>
       </c>
       <c r="D8" s="3">
         <f>D3/H3</f>
-        <v>8.6206896551724137E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <f>E3/H3</f>
